--- a/lci-Chaerhan.xlsx
+++ b/lci-Chaerhan.xlsx
@@ -2217,7 +2217,7 @@
         <v>56</v>
       </c>
       <c r="B151">
-        <v>0.008999999999999999</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="C151" t="s">
         <v>40</v>
